--- a/7월/7월의 Miracle.xlsx
+++ b/7월/7월의 Miracle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,9 +346,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,55 +649,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>44378</v>
       </c>
@@ -718,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44379</v>
       </c>
@@ -744,434 +749,591 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>44381</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44383</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>44382</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44384</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>44383</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44385</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>44384</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44386</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>44385</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44389</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>44386</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44390</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>44387</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44391</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>44388</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44392</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>44389</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44393</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>44390</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>44396</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>44391</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44397</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>44392</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44398</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>44393</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44399</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>44394</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44400</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>44395</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44403</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>44396</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44404</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>44397</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44405</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>44398</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44406</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>44399</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="5">
-        <v>44400</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>44401</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="5">
-        <v>44402</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="5">
-        <v>44403</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="5">
-        <v>44404</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>44405</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="5">
-        <v>44406</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="5">
         <v>44407</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="5">
-        <v>44408</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="7">
-        <f>COUNTIF(B3:B33, "O") / COUNTA(B3:B33)</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="7">
-        <f t="shared" ref="C34:E34" si="0">COUNTIF(C3:C33, "O") / COUNTA(C3:C33)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B25" s="7">
+        <f t="shared" ref="B25:H25" si="0">COUNTIF(B3:B24, "O") / COUNTA(B3:B24)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F34" s="7" t="e">
-        <f>COUNTIF(F8:F33, "O") / COUNTA(F8:F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="7" t="e">
-        <f>COUNTIF(G10:G33, "O") / COUNTA(G10:G33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f>COUNTIF(H10:H33, "O") / COUNTA(H10:H33)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
